--- a/data/epa_xls/lmopdataco.xlsx
+++ b/data/epa_xls/lmopdataco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29FC88F-2CEF-4CF1-B7BE-A1245895386F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AAB3C1-1A11-49EC-87A9-02B2311F7A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{78BF5566-0DBD-4A4D-8EE9-DB428A42B0CF}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A7FEABA0-82A6-4DF6-AA19-2685726CCF5F}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{729C0F3D-CC22-481B-8DBA-CECC16992F6F}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{65591507-1C96-4CC5-A4C9-601E324E0705}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8E25A2A1-DF8B-4395-9ABE-A7C2993C1DD7}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C84E6A3C-B16B-4B7D-8C58-27D7DE5842E1}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2C9202B6-1E7F-4D35-9AF9-94785A2578A3}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E80A6190-994C-46E1-B72E-98D938229044}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{BFA64BE9-F402-4BF3-9886-489A05942046}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8C9D712F-D511-41BD-8FCE-0BD2E1CC5B72}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{B184C379-7EC9-44B1-BA32-ACF93EAEEDB2}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{16A436B1-5C05-4953-A08A-721B4A45C138}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C741FF50-4491-473C-A478-D816E30AB8C7}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{C2FA6AEE-B246-43EB-A78B-592D33C06D70}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{AF87C0EA-7739-4A70-BAF3-4235A10E6423}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{9A86A5E6-D49B-43BC-B54E-F98310FCE8F5}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{FB8D04FB-D852-462A-921B-9853F700A983}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{DB88BAC7-1763-410F-827D-64303FEA2C77}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{289E538D-B3A6-4095-A0C4-95182FC23C3C}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{AB4EB604-E28C-4EF6-B5D6-E4EBA8E99A1C}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{4BDCDC09-F5C8-47CE-AE96-5C9BABD9A0E8}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE95DD32-EC1C-481D-865B-514DB143CF8C}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{420F6E66-3FE1-4D5D-93DC-FDACBFE0BD43}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{E37631D6-1224-424D-B4F4-33C6C4FC8C9B}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F1CF4540-0F8F-4CB3-B0B0-50481EACBAE1}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{1EC8B5E4-AF8B-4305-9117-117C01ECF95F}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{B8D35517-2238-40F7-BE23-6DF42F05341B}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{DF369843-2FD6-4877-8B0A-1502F40E0A87}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{40E7A935-9C74-4AAB-940D-9FD549207307}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{CA2E2C9A-5043-498B-AC7B-E6AEC539299A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{46FB355E-D01E-4EFA-9EFB-ED7B41B0D32C}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{0986F875-9114-4860-9A6F-E841061A4E37}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{783C8538-25DE-4047-834A-336D1AAEBE4B}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="334">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -720,9 +731,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -1196,9 +1204,6 @@
     <t>8925 Rancho Colorado Boulevard</t>
   </si>
   <si>
-    <t>81008</t>
-  </si>
-  <si>
     <t>6401-0</t>
   </si>
   <si>
@@ -1616,6 +1621,21 @@
   </si>
   <si>
     <t>201360-0</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>81650</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
   </si>
 </sst>
 </file>
@@ -2039,6 +2059,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2084,19 +2117,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2479,10 +2499,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2504,36 +2524,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2548,70 +2568,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2620,20 +2640,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2644,16 +2664,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2675,14 +2695,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Colorado</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2717,13 +2737,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2806,43 +2826,46 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>1776</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="I2" s="5">
         <v>37.156395000000003</v>
@@ -2851,68 +2874,69 @@
         <v>-107.05249999999999</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M2" s="5">
         <v>1985</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>20901</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>300</v>
       </c>
       <c r="I3" s="10">
         <v>37.054875000000003</v>
@@ -2921,10 +2945,10 @@
         <v>-107.86382500000001</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M3" s="10">
         <v>1997</v>
@@ -2933,60 +2957,61 @@
         <v>2019</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B4" s="10">
         <v>1719</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I4" s="10">
         <v>39.94</v>
@@ -2995,10 +3020,10 @@
         <v>-105.1995</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M4" s="10">
         <v>1973</v>
@@ -3007,7 +3032,7 @@
         <v>1992</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="11">
         <v>1375235</v>
@@ -3016,59 +3041,60 @@
         <v>1992</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="10">
-        <v>0.59199999999999997</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="T4" s="10">
-        <v>0.59199999999999997</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B5" s="10">
         <v>20896</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="I5" s="10">
         <v>38.158011999999999</v>
@@ -3077,10 +3103,10 @@
         <v>-108.518126</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M5" s="10">
         <v>1996</v>
@@ -3089,7 +3115,7 @@
         <v>2020</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="11">
         <v>454401</v>
@@ -3098,53 +3124,54 @@
         <v>2012</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>1733</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I6" s="10">
         <v>38.138888000000001</v>
@@ -3153,70 +3180,71 @@
         <v>-104.48527900000001</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M6" s="10">
         <v>1992</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="11">
         <v>393114</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>2393</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="I7" s="10">
         <v>40.19</v>
@@ -3225,10 +3253,10 @@
         <v>-104.53</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="10">
         <v>2002</v>
@@ -3237,60 +3265,61 @@
         <v>2061</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B8" s="10">
         <v>1736</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="I8" s="10">
         <v>40.350836000000001</v>
@@ -3299,10 +3328,10 @@
         <v>-104.80346400000001</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M8" s="10">
         <v>1971</v>
@@ -3311,7 +3340,7 @@
         <v>1995</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="11">
         <v>2217980</v>
@@ -3320,55 +3349,56 @@
         <v>1995</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="10">
         <v>1720</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="I9" s="10">
         <v>38.843000000000004</v>
@@ -3377,62 +3407,63 @@
         <v>-104.58</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M9" s="10">
         <v>1968</v>
       </c>
       <c r="N9" s="10">
-        <v>2089</v>
+        <v>2095</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="11">
-        <v>9947285</v>
+        <v>10240868</v>
       </c>
       <c r="Q9" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10">
         <v>1741</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -3441,7 +3472,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -3449,60 +3480,61 @@
         <v>2017</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B11" s="10">
         <v>1740</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="I11" s="10">
         <v>39.563600000000001</v>
@@ -3511,10 +3543,10 @@
         <v>-104.9335</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M11" s="10">
         <v>1965</v>
@@ -3523,7 +3555,7 @@
         <v>1987</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" s="11">
         <v>3165530</v>
@@ -3532,22 +3564,22 @@
         <v>1986</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="10">
-        <v>0.84499999999999997</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="T11" s="10">
-        <v>0.84499999999999997</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X11" s="12">
         <v>31413</v>
@@ -3556,43 +3588,44 @@
         <v>36161</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10">
         <v>0.8</v>
       </c>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-    </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+    </row>
+    <row r="12" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="10">
         <v>1718</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="I12" s="10">
         <v>39.659999999999997</v>
@@ -3601,88 +3634,93 @@
         <v>-104.69</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M12" s="10">
         <v>1966</v>
       </c>
       <c r="N12" s="10">
-        <v>2139</v>
+        <v>2144</v>
       </c>
       <c r="O12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="11">
+        <v>69077355</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="11">
-        <v>66291826</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S12" s="10">
-        <v>3.8159999999999998</v>
+        <v>4.0750000000000002</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X12" s="12">
         <v>39692</v>
       </c>
       <c r="Y12" s="12"/>
       <c r="Z12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AD12" s="10">
         <v>3.2</v>
       </c>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="65">
-        <v>0.14457999999999999</v>
-      </c>
-      <c r="AF12" s="65">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE12" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AF12" s="50">
+        <v>0.10843</v>
+      </c>
+      <c r="AG12" s="50">
+        <v>1.2659999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" s="10">
         <v>1739</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="I13" s="10">
         <v>40.043900000000001</v>
@@ -3691,10 +3729,10 @@
         <v>-105.00414000000001</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M13" s="10">
         <v>1984</v>
@@ -3703,7 +3741,7 @@
         <v>1992</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="11">
         <v>6319775</v>
@@ -3712,67 +3750,72 @@
         <v>1992</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="10">
-        <v>0.23499999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X13" s="12">
         <v>40817</v>
       </c>
       <c r="Y13" s="12"/>
       <c r="Z13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10">
         <v>3.2</v>
       </c>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="65">
-        <v>0.4819</v>
-      </c>
-      <c r="AF13" s="65">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD13" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AF13" s="50">
+        <v>4.8189999999999997E-2</v>
+      </c>
+      <c r="AG13" s="50">
+        <v>5.6299999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="10">
         <v>1739</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="I14" s="10">
         <v>40.043900000000001</v>
@@ -3781,10 +3824,10 @@
         <v>-105.00414000000001</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M14" s="10">
         <v>1984</v>
@@ -3793,7 +3836,7 @@
         <v>1992</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" s="11">
         <v>6319775</v>
@@ -3802,20 +3845,20 @@
         <v>1992</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14" s="10">
-        <v>0.23499999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X14" s="12">
         <v>36526</v>
@@ -3824,43 +3867,44 @@
         <v>37408</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10">
         <v>11.7</v>
       </c>
       <c r="AD14" s="10"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-    </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+    </row>
+    <row r="15" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="10">
         <v>1737</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="I15" s="10">
         <v>40.029179999999997</v>
@@ -3869,10 +3913,10 @@
         <v>-105.02982</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M15" s="10">
         <v>1980</v>
@@ -3881,76 +3925,81 @@
         <v>2020</v>
       </c>
       <c r="O15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="11">
+        <v>14666480</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="11">
-        <v>14430062</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S15" s="10">
-        <v>1.2729999999999999</v>
+        <v>1.621</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X15" s="12">
         <v>40817</v>
       </c>
       <c r="Y15" s="12"/>
       <c r="Z15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10">
         <v>3.2</v>
       </c>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="65">
-        <v>0.4819</v>
-      </c>
-      <c r="AF15" s="65">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD15" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AF15" s="50">
+        <v>4.8189999999999997E-2</v>
+      </c>
+      <c r="AG15" s="50">
+        <v>5.6299999999999996E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" s="10">
         <v>12221</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="I16" s="10">
         <v>39.725000000000001</v>
@@ -3959,76 +4008,77 @@
         <v>-106.661</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M16" s="10">
         <v>1967</v>
       </c>
       <c r="N16" s="10">
-        <v>2026</v>
+        <v>2037</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" s="11">
-        <v>2723818</v>
+        <v>2823048</v>
       </c>
       <c r="Q16" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W16" s="10"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-    </row>
-    <row r="17" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+    </row>
+    <row r="17" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B17" s="10">
         <v>20761</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="G17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="I17" s="10">
         <v>39.842345999999999</v>
@@ -4037,10 +4087,10 @@
         <v>-104.489113</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M17" s="10">
         <v>2010</v>
@@ -4049,64 +4099,65 @@
         <v>2053</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="11">
-        <v>1773299</v>
+        <v>2027352</v>
       </c>
       <c r="Q17" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W17" s="10"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-    </row>
-    <row r="18" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+    </row>
+    <row r="18" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="10">
         <v>1725</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="I18" s="10">
         <v>39.848999999999997</v>
@@ -4115,80 +4166,81 @@
         <v>-105.226</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M18" s="10">
         <v>1986</v>
       </c>
       <c r="N18" s="10">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="O18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="11">
+        <v>22223419</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="11">
-        <v>21717730</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S18" s="10">
-        <v>1.381</v>
+        <v>1.33</v>
       </c>
       <c r="T18" s="10">
-        <v>1.381</v>
+        <v>1.33</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-    </row>
-    <row r="19" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+    </row>
+    <row r="19" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="10">
         <v>1721</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="G19" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="I19" s="10">
         <v>38.681809999999999</v>
@@ -4197,10 +4249,10 @@
         <v>-104.628676</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="10">
         <v>1966</v>
@@ -4209,68 +4261,69 @@
         <v>2079</v>
       </c>
       <c r="O19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="11">
+        <v>5848952</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="11">
-        <v>5456668</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S19" s="10">
-        <v>0.52200000000000002</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="T19" s="10">
-        <v>0.52200000000000002</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-    </row>
-    <row r="20" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+    </row>
+    <row r="20" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="10">
         <v>2277</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="I20" s="10">
         <v>40.020404999999997</v>
@@ -4279,10 +4332,10 @@
         <v>-105.01267300000001</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="10">
         <v>1996</v>
@@ -4291,74 +4344,79 @@
         <v>2048</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="11">
+        <v>16098136</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="11">
-        <v>14253008</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S20" s="10">
-        <v>0.81399999999999995</v>
+        <v>0.93</v>
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X20" s="12">
         <v>40817</v>
       </c>
       <c r="Y20" s="12"/>
       <c r="Z20" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10">
         <v>3.2</v>
       </c>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="65">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="AF20" s="65">
-        <v>0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AD20" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AF20" s="50">
+        <v>4.82E-2</v>
+      </c>
+      <c r="AG20" s="50">
+        <v>5.6299999999999996E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10">
         <v>2417</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="I21" s="10">
         <v>39.848999999999997</v>
@@ -4367,68 +4425,69 @@
         <v>-105.226</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-    </row>
-    <row r="22" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+    </row>
+    <row r="22" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="10">
         <v>1726</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="I22" s="10">
         <v>40.505077999999997</v>
@@ -4437,10 +4496,10 @@
         <v>-105.122846</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M22" s="10">
         <v>1963</v>
@@ -4449,16 +4508,16 @@
         <v>2024</v>
       </c>
       <c r="O22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="11">
+        <v>7926315</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P22" s="11">
-        <v>7684794</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S22" s="10">
         <v>0.32300000000000001</v>
@@ -4467,54 +4526,55 @@
         <v>0.307</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-    </row>
-    <row r="23" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+    </row>
+    <row r="23" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10">
         <v>1728</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M23" s="10">
         <v>1966</v>
@@ -4523,62 +4583,63 @@
         <v>1993</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="11">
         <v>2711778</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-    </row>
-    <row r="24" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+    </row>
+    <row r="24" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B24" s="10">
         <v>1727</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="I24" s="10">
         <v>39.012</v>
@@ -4587,78 +4648,79 @@
         <v>-108.492</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M24" s="10">
         <v>1983</v>
       </c>
       <c r="N24" s="10">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P24" s="11">
         <v>8688255</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S24" s="10">
-        <v>0.47799999999999998</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="T24" s="10">
-        <v>0.47799999999999998</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-    </row>
-    <row r="25" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+    </row>
+    <row r="25" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B25" s="10">
         <v>1722</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I25" s="10">
         <v>38.547499999999999</v>
@@ -4667,10 +4729,10 @@
         <v>-104.657819</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M25" s="10">
         <v>1991</v>
@@ -4679,64 +4741,65 @@
         <v>2091</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P25" s="11">
-        <v>6570008</v>
+        <v>6903288</v>
       </c>
       <c r="Q25" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-    </row>
-    <row r="26" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+    </row>
+    <row r="26" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B26" s="10">
         <v>1734</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="I26" s="10">
         <v>40.469085</v>
@@ -4745,76 +4808,77 @@
         <v>-107.03937000000001</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M26" s="10">
         <v>1965</v>
       </c>
       <c r="N26" s="10">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P26" s="11">
-        <v>2469485</v>
+        <v>2545488</v>
       </c>
       <c r="Q26" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W26" s="10"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-    </row>
-    <row r="27" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+    </row>
+    <row r="27" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B27" s="10">
         <v>1729</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="I27" s="10">
         <v>38.527169999999998</v>
@@ -4823,74 +4887,75 @@
         <v>-107.818073</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M27" s="10">
         <v>1976</v>
       </c>
       <c r="N27" s="10">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" s="11">
-        <v>3258243</v>
+        <v>3314591</v>
       </c>
       <c r="Q27" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W27" s="10"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-    </row>
-    <row r="28" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+    </row>
+    <row r="28" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10">
         <v>1730</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="I28" s="10">
         <v>40.314300000000003</v>
@@ -4899,72 +4964,73 @@
         <v>-103.7351</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M28" s="10">
         <v>1973</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P28" s="11">
         <v>915183</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W28" s="10"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-    </row>
-    <row r="29" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+    </row>
+    <row r="29" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B29" s="10">
         <v>1738</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="I29" s="10">
         <v>40.582169999999998</v>
@@ -4973,10 +5039,10 @@
         <v>-104.83177000000001</v>
       </c>
       <c r="K29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M29" s="10">
         <v>1992</v>
@@ -4985,62 +5051,63 @@
         <v>2021</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P29" s="11">
-        <v>9416904</v>
+        <v>10200920</v>
       </c>
       <c r="Q29" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W29" s="10"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-    </row>
-    <row r="30" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+    </row>
+    <row r="30" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10">
         <v>2160</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="I30" s="10">
         <v>38.468738999999999</v>
@@ -5049,17 +5116,17 @@
         <v>-105.116272</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M30" s="10">
         <v>1999</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P30" s="11">
         <v>180000</v>
@@ -5068,55 +5135,56 @@
         <v>2001</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W30" s="10"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-    </row>
-    <row r="31" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+    </row>
+    <row r="31" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B31" s="10">
         <v>1731</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="I31" s="10">
         <v>39.284999999999997</v>
@@ -5125,10 +5193,10 @@
         <v>-106.9175</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M31" s="10">
         <v>1964</v>
@@ -5137,60 +5205,61 @@
         <v>2042</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P31" s="11">
         <v>2465911</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="R31" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W31" s="10"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-    </row>
-    <row r="32" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+    </row>
+    <row r="32" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10">
         <v>2129</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I32" s="10">
         <v>39.715530999999999</v>
@@ -5199,68 +5268,69 @@
         <v>-105.202015</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W32" s="10"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-    </row>
-    <row r="33" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+    </row>
+    <row r="33" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B33" s="10">
         <v>21131</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="I33" s="10">
         <v>39.447543000000003</v>
@@ -5269,10 +5339,10 @@
         <v>-104.965458</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M33" s="10">
         <v>2006</v>
@@ -5281,62 +5351,63 @@
         <v>2022</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="11">
-        <v>1174488</v>
+        <v>1366775</v>
       </c>
       <c r="Q33" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W33" s="10"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-    </row>
-    <row r="34" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+    </row>
+    <row r="34" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10">
         <v>1724</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="I34" s="10">
         <v>39.551000000000002</v>
@@ -5345,72 +5416,73 @@
         <v>-107.42</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M34" s="10">
         <v>1953</v>
       </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P34" s="11">
         <v>1798154</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W34" s="10"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-    </row>
-    <row r="35" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+    </row>
+    <row r="35" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="10">
         <v>1732</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="G35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="I35" s="10">
         <v>38.221269999999997</v>
@@ -5419,10 +5491,10 @@
         <v>-104.708434</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M35" s="10">
         <v>1962</v>
@@ -5431,7 +5503,7 @@
         <v>2043</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P35" s="11">
         <v>3529430</v>
@@ -5440,22 +5512,22 @@
         <v>2017</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S35" s="10">
-        <v>0.218</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="T35" s="10">
         <v>0.218</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X35" s="12">
         <v>33604</v>
@@ -5464,43 +5536,44 @@
         <v>33604</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
-      <c r="AD35" s="10">
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10">
         <v>0</v>
       </c>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-    </row>
-    <row r="36" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+    </row>
+    <row r="36" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B36" s="10">
         <v>1735</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="I36" s="10">
         <v>39.607999999999997</v>
@@ -5509,71 +5582,72 @@
         <v>-105.997</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M36" s="10">
         <v>1964</v>
       </c>
       <c r="N36" s="10">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P36" s="11">
-        <v>2268783</v>
+        <v>2324601</v>
       </c>
       <c r="Q36" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W36" s="10"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-    </row>
-    <row r="37" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+    </row>
+    <row r="37" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10">
         <v>1723</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="10">
@@ -5583,10 +5657,10 @@
         <v>-104.708</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M37" s="10">
         <v>1957</v>
@@ -5595,7 +5669,7 @@
         <v>1988</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P37" s="11">
         <v>1250000</v>
@@ -5604,55 +5678,56 @@
         <v>1988</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="W37" s="10"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-    </row>
-    <row r="38" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+    </row>
+    <row r="38" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" s="10">
         <v>1716</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="I38" s="10">
         <v>39.850520000000003</v>
@@ -5661,28 +5736,28 @@
         <v>-104.77187000000001</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M38" s="10">
         <v>1981</v>
       </c>
       <c r="N38" s="10">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="O38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="11">
+        <v>43110992</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R38" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P38" s="11">
-        <v>41348299</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R38" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S38" s="10">
         <v>1.296</v>
@@ -5691,13 +5766,13 @@
         <v>1.296</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X38" s="12">
         <v>36526</v>
@@ -5706,41 +5781,42 @@
         <v>36891</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10">
         <v>2.7</v>
       </c>
       <c r="AD38" s="10"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-    </row>
-    <row r="39" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+    </row>
+    <row r="39" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="10">
         <v>11521</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" s="9">
-        <v>81650</v>
+        <v>224</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="I39" s="10">
         <v>39.517000000000003</v>
@@ -5749,68 +5825,69 @@
         <v>-107.905</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="10">
         <v>2041</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W39" s="10"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="65"/>
-    </row>
-    <row r="40" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+    </row>
+    <row r="40" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14">
         <v>1717</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="I40" s="14">
         <v>39.829017</v>
@@ -5819,7 +5896,7 @@
         <v>-104.952669</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14">
@@ -5829,40 +5906,41 @@
         <v>1994</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P40" s="15">
         <v>867423</v>
       </c>
       <c r="Q40" s="14"/>
       <c r="R40" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="V40" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="W40" s="14"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
       <c r="Z40" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA40" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB40" s="14"/>
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG40">
     <sortCondition ref="C2:C40"/>
     <sortCondition ref="U2:U40"/>
   </sortState>
@@ -5871,7 +5949,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Colorado&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Colorado&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -5883,7 +5961,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5901,10 +5979,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5912,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5920,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5928,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5936,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5944,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5952,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5960,7 +6038,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5968,7 +6046,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5976,7 +6054,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5984,7 +6062,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5992,7 +6070,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6000,7 +6078,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6008,7 +6086,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6016,7 +6094,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6024,7 +6102,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6032,7 +6110,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6040,7 +6118,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -6048,7 +6126,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6056,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6064,7 +6142,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6072,7 +6150,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6080,7 +6158,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6088,7 +6166,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6096,7 +6174,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6104,7 +6182,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6112,7 +6190,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6120,47 +6198,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>72</v>
+      <c r="A30" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>73</v>
+      <c r="A31" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>75</v>
+      <c r="B34" s="46" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
